--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/194.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/194.xlsx
@@ -479,13 +479,13 @@
         <v>-10.74771929925074</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.71497866207153</v>
+        <v>-14.68664691872203</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.05461070899193151</v>
+        <v>-0.07832086943829741</v>
       </c>
       <c r="G2" t="n">
-        <v>-11.19693287316848</v>
+        <v>-11.1591615794701</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-10.74428061624791</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.86742543636059</v>
+        <v>-14.84188235351638</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01634957241022378</v>
+        <v>-0.01059438683804847</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.90167525948187</v>
+        <v>-10.86643078023194</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-10.68350800404334</v>
       </c>
       <c r="E4" t="n">
-        <v>-15.23050117876734</v>
+        <v>-15.20253601989741</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05254978976759636</v>
+        <v>0.02777915279105064</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.53859951707512</v>
+        <v>-10.50025216205171</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-10.55294945291595</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.74193889697652</v>
+        <v>-15.71122435450983</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1824516185632024</v>
+        <v>0.1540282290938151</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.35321250883628</v>
+        <v>-10.31320243135197</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-10.34126908913129</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.22809537839834</v>
+        <v>-16.19524679056845</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1729727913057927</v>
+        <v>0.145911001331945</v>
       </c>
       <c r="G6" t="n">
-        <v>-10.19564664413611</v>
+        <v>-10.15396075188805</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-10.04011703184677</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.80210121188813</v>
+        <v>-16.7640942567386</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3130473394094199</v>
+        <v>0.2777635832509682</v>
       </c>
       <c r="G7" t="n">
-        <v>-10.0477952681445</v>
+        <v>-10.00646286807317</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-9.639582297459775</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.39083588607487</v>
+        <v>-17.3484561017762</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4606106847385145</v>
+        <v>0.4289665887700626</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.842259205832239</v>
+        <v>-9.801097005697853</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-9.147884188682742</v>
       </c>
       <c r="E9" t="n">
-        <v>-18.12134710773466</v>
+        <v>-18.07333763321405</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7408645193685026</v>
+        <v>0.7050832557020653</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.879454438205583</v>
+        <v>-9.837585253717743</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-8.571167628176349</v>
       </c>
       <c r="E10" t="n">
-        <v>-18.60611580505525</v>
+        <v>-18.55484634712705</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7800890586823139</v>
+        <v>0.7487460856792217</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.532220382237325</v>
+        <v>-9.49206628942175</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-7.921287514039223</v>
       </c>
       <c r="E11" t="n">
-        <v>-19.21268219571242</v>
+        <v>-19.15740649311465</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9055918737231</v>
+        <v>0.8742619930228496</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.485952183994664</v>
+        <v>-9.444200830232401</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-7.216850121152733</v>
       </c>
       <c r="E12" t="n">
-        <v>-19.76041177739887</v>
+        <v>-19.70378756760841</v>
       </c>
       <c r="F12" t="n">
-        <v>1.066456998739388</v>
+        <v>1.031029227249677</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.994794442887311</v>
+        <v>-8.952493212405694</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-6.477318908694344</v>
       </c>
       <c r="E13" t="n">
-        <v>-20.57481847566844</v>
+        <v>-20.51541869767553</v>
       </c>
       <c r="F13" t="n">
-        <v>1.25276046817715</v>
+        <v>1.214740420724778</v>
       </c>
       <c r="G13" t="n">
-        <v>-8.50616351622841</v>
+        <v>-8.458572995398736</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-5.738859566470804</v>
       </c>
       <c r="E14" t="n">
-        <v>-21.40696524428855</v>
+        <v>-21.34719888181607</v>
       </c>
       <c r="F14" t="n">
-        <v>1.576127256064942</v>
+        <v>1.533760564069117</v>
       </c>
       <c r="G14" t="n">
-        <v>-8.053837545349618</v>
+        <v>-7.999753242310446</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-5.031312852625647</v>
       </c>
       <c r="E15" t="n">
-        <v>-22.23134827732352</v>
+        <v>-22.17010248462992</v>
       </c>
       <c r="F15" t="n">
-        <v>1.690135029210693</v>
+        <v>1.646040153239759</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.616711738070067</v>
+        <v>-7.556945375597587</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-4.381857859779608</v>
       </c>
       <c r="E16" t="n">
-        <v>-23.08772889850366</v>
+        <v>-23.02813273596812</v>
       </c>
       <c r="F16" t="n">
-        <v>1.969498587247444</v>
+        <v>1.923675527301403</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.035557507228688</v>
+        <v>-6.980098512391137</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-3.813033532302869</v>
       </c>
       <c r="E17" t="n">
-        <v>-23.70000353319982</v>
+        <v>-23.64182133937119</v>
       </c>
       <c r="F17" t="n">
-        <v>2.160436731891177</v>
+        <v>2.113880502985999</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.950208785003476</v>
+        <v>-6.892851406253874</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-3.336234722846232</v>
       </c>
       <c r="E18" t="n">
-        <v>-24.51331047803069</v>
+        <v>-24.45345246943831</v>
       </c>
       <c r="F18" t="n">
-        <v>2.579416607432095</v>
+        <v>2.527859118841377</v>
       </c>
       <c r="G18" t="n">
-        <v>-6.54906062593299</v>
+        <v>-6.49187344712033</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-2.967976385716419</v>
       </c>
       <c r="E19" t="n">
-        <v>-25.36520043933612</v>
+        <v>-25.30259304714698</v>
       </c>
       <c r="F19" t="n">
-        <v>2.845033247485033</v>
+        <v>2.792716405329496</v>
       </c>
       <c r="G19" t="n">
-        <v>-6.244402738806023</v>
+        <v>-6.189899482075918</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-2.712410620848606</v>
       </c>
       <c r="E20" t="n">
-        <v>-26.11838752951778</v>
+        <v>-26.05570158351159</v>
       </c>
       <c r="F20" t="n">
-        <v>3.066790673018189</v>
+        <v>3.014604753891069</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.135540240677072</v>
+        <v>-6.074399186406211</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-2.567176075154864</v>
       </c>
       <c r="E21" t="n">
-        <v>-26.7025660823156</v>
+        <v>-26.63961829025258</v>
       </c>
       <c r="F21" t="n">
-        <v>3.383284001914075</v>
+        <v>3.333088112818897</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.802943379285862</v>
+        <v>-5.745847846593095</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-2.524874551670973</v>
       </c>
       <c r="E22" t="n">
-        <v>-27.28924526495618</v>
+        <v>-27.22577378077949</v>
       </c>
       <c r="F22" t="n">
-        <v>3.587000234131333</v>
+        <v>3.541255728002342</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.661166831812811</v>
+        <v>-5.596503948077526</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-2.569962494599585</v>
       </c>
       <c r="E23" t="n">
-        <v>-27.73484179217433</v>
+        <v>-27.67423752231998</v>
       </c>
       <c r="F23" t="n">
-        <v>3.769218905082476</v>
+        <v>3.724207567912622</v>
       </c>
       <c r="G23" t="n">
-        <v>-5.460946244454294</v>
+        <v>-5.398757805956095</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-2.692599175668339</v>
       </c>
       <c r="E24" t="n">
-        <v>-27.96470335316651</v>
+        <v>-27.90335282205018</v>
       </c>
       <c r="F24" t="n">
-        <v>3.905378854636427</v>
+        <v>3.859896194564271</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.299059919816352</v>
+        <v>-5.235968112422073</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-2.877294812846663</v>
       </c>
       <c r="E25" t="n">
-        <v>-28.23092223915017</v>
+        <v>-28.17154864576294</v>
       </c>
       <c r="F25" t="n">
-        <v>4.220877168516342</v>
+        <v>4.174923185541884</v>
       </c>
       <c r="G25" t="n">
-        <v>-5.004456921271832</v>
+        <v>-4.943459882332229</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-3.106315615712311</v>
       </c>
       <c r="E26" t="n">
-        <v>-28.19059794639766</v>
+        <v>-28.13164330670136</v>
       </c>
       <c r="F26" t="n">
-        <v>4.383850154290148</v>
+        <v>4.33357571137792</v>
       </c>
       <c r="G26" t="n">
-        <v>-5.009562919380104</v>
+        <v>-4.946222358231834</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-3.361442195782181</v>
       </c>
       <c r="E27" t="n">
-        <v>-28.08148669451471</v>
+        <v>-28.0245351771532</v>
       </c>
       <c r="F27" t="n">
-        <v>4.335120603113244</v>
+        <v>4.287962128277346</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.821400342938817</v>
+        <v>-4.764854686965402</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-3.621818939825082</v>
       </c>
       <c r="E28" t="n">
-        <v>-28.03122534390532</v>
+        <v>-27.97241471954029</v>
       </c>
       <c r="F28" t="n">
-        <v>4.312339996168641</v>
+        <v>4.269659088904613</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.734781667337958</v>
+        <v>-4.682648117422205</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-3.8737558780032</v>
       </c>
       <c r="E29" t="n">
-        <v>-27.8159747928845</v>
+        <v>-27.76083001331515</v>
       </c>
       <c r="F29" t="n">
-        <v>4.300007046891734</v>
+        <v>4.258504446883463</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.613952804411668</v>
+        <v>-4.564241330521634</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-4.105814333785379</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.66949810869128</v>
+        <v>-27.61595059006861</v>
       </c>
       <c r="F30" t="n">
-        <v>4.200976868196919</v>
+        <v>4.16321866680138</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.567409667809332</v>
+        <v>-4.517999316884658</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-4.309067172444531</v>
       </c>
       <c r="E31" t="n">
-        <v>-27.22384921226176</v>
+        <v>-27.17246192360799</v>
       </c>
       <c r="F31" t="n">
-        <v>4.054840583877572</v>
+        <v>4.019150966331027</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.656162388773392</v>
+        <v>-4.611910405168358</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-4.47782304728001</v>
       </c>
       <c r="E32" t="n">
-        <v>-26.84651595206037</v>
+        <v>-26.79747218561527</v>
       </c>
       <c r="F32" t="n">
-        <v>3.967960062219878</v>
+        <v>3.934312843916642</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.736038528410764</v>
+        <v>-4.692297144616557</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-4.606710026802445</v>
       </c>
       <c r="E33" t="n">
-        <v>-26.426829092166</v>
+        <v>-26.37781151032658</v>
       </c>
       <c r="F33" t="n">
-        <v>3.834418573234272</v>
+        <v>3.801425970073122</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.667644338365586</v>
+        <v>-4.635201611923789</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-4.696497084530875</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.93971687263674</v>
+        <v>-25.89232273634969</v>
       </c>
       <c r="F34" t="n">
-        <v>3.703783575479529</v>
+        <v>3.673383248281041</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.48577915959117</v>
+        <v>-4.458560261983221</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-4.750398314506334</v>
       </c>
       <c r="E35" t="n">
-        <v>-25.53162979306014</v>
+        <v>-25.48695885576417</v>
       </c>
       <c r="F35" t="n">
-        <v>3.464822864012345</v>
+        <v>3.433663183249037</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.489968696500522</v>
+        <v>-4.467620135549695</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-4.772368847878687</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.8427390021342</v>
+        <v>-24.79778003417571</v>
       </c>
       <c r="F36" t="n">
-        <v>3.245657714441851</v>
+        <v>3.219577847181132</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.758491827784324</v>
+        <v>-4.738604619767742</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-4.768029345757354</v>
       </c>
       <c r="E37" t="n">
-        <v>-24.3630501183162</v>
+        <v>-24.320631057109</v>
       </c>
       <c r="F37" t="n">
-        <v>3.115703516434878</v>
+        <v>3.08834060349567</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.750832830621914</v>
+        <v>-4.735318451754469</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-4.741655398685611</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.94719930315445</v>
+        <v>-23.90694047191614</v>
       </c>
       <c r="F38" t="n">
-        <v>3.042517543549629</v>
+        <v>3.015966353386609</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.895515869325829</v>
+        <v>-4.878037645032125</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-4.702012308037348</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.44715188841757</v>
+        <v>-23.40811064134354</v>
       </c>
       <c r="F39" t="n">
-        <v>3.014526200074019</v>
+        <v>2.987346579374595</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.765535486713173</v>
+        <v>-4.751330338129899</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-4.659191794436735</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.06363906127488</v>
+        <v>-23.02585467527366</v>
       </c>
       <c r="F40" t="n">
-        <v>3.106041396937684</v>
+        <v>3.073258270622002</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.750518615353712</v>
+        <v>-4.739861480840547</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-4.621494708979903</v>
       </c>
       <c r="E41" t="n">
-        <v>-22.53298184249405</v>
+        <v>-22.49598299466333</v>
       </c>
       <c r="F41" t="n">
-        <v>3.121883083376172</v>
+        <v>3.092634878827756</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.678484765118536</v>
+        <v>-4.667997830542313</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-4.596435547280719</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.85590030873134</v>
+        <v>-21.82195196746274</v>
       </c>
       <c r="F42" t="n">
-        <v>3.216514248316168</v>
+        <v>3.188863304714443</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.706174985628786</v>
+        <v>-4.694837051367852</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-4.587138271022329</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.19267043137518</v>
+        <v>-21.15933742834014</v>
       </c>
       <c r="F43" t="n">
-        <v>3.334894850611056</v>
+        <v>3.306851137924078</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.750361507719612</v>
+        <v>-4.736431297496015</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-4.598483662503733</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.9029115848821</v>
+        <v>-20.87143768885059</v>
       </c>
       <c r="F44" t="n">
-        <v>3.24110159305293</v>
+        <v>3.215335941060413</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.80131675037961</v>
+        <v>-4.789075447222595</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-4.634683794480229</v>
       </c>
       <c r="E45" t="n">
-        <v>-20.4159433806841</v>
+        <v>-20.38699629910104</v>
       </c>
       <c r="F45" t="n">
-        <v>3.368672991942709</v>
+        <v>3.34031506398753</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.748777339075763</v>
+        <v>-4.738408235225116</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-4.695134005269218</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.08847870200685</v>
+        <v>-20.05822239013962</v>
       </c>
       <c r="F46" t="n">
-        <v>3.396638150812636</v>
+        <v>3.368961022605227</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.722409441152527</v>
+        <v>-4.718730504054002</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-4.776373805373202</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.54423167287629</v>
+        <v>-19.51722225211381</v>
       </c>
       <c r="F47" t="n">
-        <v>3.404074578826736</v>
+        <v>3.377680496297816</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.992019233572192</v>
+        <v>-4.990526711048235</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-4.870055755017763</v>
       </c>
       <c r="E48" t="n">
-        <v>-19.06896798741879</v>
+        <v>-19.04295358167228</v>
       </c>
       <c r="F48" t="n">
-        <v>3.333140482030264</v>
+        <v>3.308657875716237</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.107205313973697</v>
+        <v>-5.106275760471935</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-4.969894714418694</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.68328183800439</v>
+        <v>-18.65289460310874</v>
       </c>
       <c r="F49" t="n">
-        <v>3.352045767333717</v>
+        <v>3.328086853133358</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.396073883873542</v>
+        <v>-5.393272131065412</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-5.071514672166368</v>
       </c>
       <c r="E50" t="n">
-        <v>-18.16833538263361</v>
+        <v>-18.13937520874772</v>
       </c>
       <c r="F50" t="n">
-        <v>3.494673314491481</v>
+        <v>3.466027355873784</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.309311192941423</v>
+        <v>-5.315700236728185</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-5.168687041002349</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.50390101341602</v>
+        <v>-17.47361851694311</v>
       </c>
       <c r="F51" t="n">
-        <v>3.512400292539177</v>
+        <v>3.481685750072488</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.522113483330839</v>
+        <v>-5.52872509626591</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-5.256123697176135</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.11141995882675</v>
+        <v>-17.0820015543414</v>
       </c>
       <c r="F52" t="n">
-        <v>3.340445987015948</v>
+        <v>3.312454643540337</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.816061866733272</v>
+        <v>-5.814922836386041</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-5.327318545090534</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.72196322619393</v>
+        <v>-16.69077736082494</v>
       </c>
       <c r="F53" t="n">
-        <v>3.374485974404435</v>
+        <v>3.348301368720983</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.845742117275465</v>
+        <v>-5.846108701755034</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-5.379748027808752</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.52645586785843</v>
+        <v>-16.49113283479146</v>
       </c>
       <c r="F54" t="n">
-        <v>3.109104995802648</v>
+        <v>3.084072512769267</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.021650298256897</v>
+        <v>-6.025041204692903</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-5.414540344818799</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.23705051354208</v>
+        <v>-16.19923994293517</v>
       </c>
       <c r="F55" t="n">
-        <v>2.961999881073014</v>
+        <v>2.936208044474813</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.162942430524804</v>
+        <v>-6.170090827876386</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-5.431026594785298</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.90916688117389</v>
+        <v>-15.86729769668605</v>
       </c>
       <c r="F56" t="n">
-        <v>2.908321439421937</v>
+        <v>2.88247723361237</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.475220037905654</v>
+        <v>-6.476398345161409</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-5.428927701429051</v>
       </c>
       <c r="E57" t="n">
-        <v>-15.36240612989773</v>
+        <v>-15.32086425298093</v>
       </c>
       <c r="F57" t="n">
-        <v>2.946367671479992</v>
+        <v>2.916281559549706</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.732536157956939</v>
+        <v>-6.734225065023521</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-5.406369424852891</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.16129526594597</v>
+        <v>-15.11722657458072</v>
       </c>
       <c r="F58" t="n">
-        <v>2.788553053025827</v>
+        <v>2.757419556868202</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.708760535996364</v>
+        <v>-6.709441335744134</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-5.363947029608762</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.81742593180804</v>
+        <v>-14.77170761028473</v>
       </c>
       <c r="F59" t="n">
-        <v>2.915993528887188</v>
+        <v>2.880879972665679</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.818251464661719</v>
+        <v>-6.820346233116395</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-5.305427712384677</v>
       </c>
       <c r="E60" t="n">
-        <v>-14.76298813659214</v>
+        <v>-14.71425858541524</v>
       </c>
       <c r="F60" t="n">
-        <v>2.734926980586116</v>
+        <v>2.699813424364607</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.823697862643877</v>
+        <v>-6.823580031918302</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-5.231911127308636</v>
       </c>
       <c r="E61" t="n">
-        <v>-14.41847727961496</v>
+        <v>-14.37058563581993</v>
       </c>
       <c r="F61" t="n">
-        <v>2.621076315074467</v>
+        <v>2.585569989767706</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.232662126510874</v>
+        <v>-7.228446404995839</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-5.144073622890932</v>
       </c>
       <c r="E62" t="n">
-        <v>-14.21392314001583</v>
+        <v>-14.16101714423242</v>
       </c>
       <c r="F62" t="n">
-        <v>2.575567470396627</v>
+        <v>2.538306776509075</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.176496147319869</v>
+        <v>-7.177347147004582</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-5.040898951142024</v>
       </c>
       <c r="E63" t="n">
-        <v>-13.89516484272833</v>
+        <v>-13.84180061634545</v>
       </c>
       <c r="F63" t="n">
-        <v>2.503062297259148</v>
+        <v>2.466011080217063</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.379374472155257</v>
+        <v>-7.375944288810724</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-4.923406204563125</v>
       </c>
       <c r="E64" t="n">
-        <v>-13.70903157322751</v>
+        <v>-13.65268230179672</v>
       </c>
       <c r="F64" t="n">
-        <v>2.415186760585482</v>
+        <v>2.376695390230808</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.392348944271407</v>
+        <v>-7.397808434556407</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-4.796128418258926</v>
       </c>
       <c r="E65" t="n">
-        <v>-13.51988707407309</v>
+        <v>-13.46235949538655</v>
       </c>
       <c r="F65" t="n">
-        <v>2.168999097949666</v>
+        <v>2.139305755104631</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.742070537779594</v>
+        <v>-7.741468291848874</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-4.660837341413034</v>
       </c>
       <c r="E66" t="n">
-        <v>-13.3048329075949</v>
+        <v>-13.24620557546965</v>
       </c>
       <c r="F66" t="n">
-        <v>2.102568753330748</v>
+        <v>2.072744487457296</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.784319399049844</v>
+        <v>-7.787801951605743</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-4.519290646761408</v>
       </c>
       <c r="E67" t="n">
-        <v>-13.13533995500591</v>
+        <v>-13.07613656155563</v>
       </c>
       <c r="F67" t="n">
-        <v>2.382848772566419</v>
+        <v>2.341084326501313</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.865020353766243</v>
+        <v>-7.862480447014948</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-4.371727456709293</v>
       </c>
       <c r="E68" t="n">
-        <v>-13.08646638849775</v>
+        <v>-13.02508967277574</v>
       </c>
       <c r="F68" t="n">
-        <v>2.088821835346935</v>
+        <v>2.055174617043699</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.762455253304162</v>
+        <v>-7.765924713557219</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-4.219666387374189</v>
       </c>
       <c r="E69" t="n">
-        <v>-12.94636565578844</v>
+        <v>-12.88454380176981</v>
       </c>
       <c r="F69" t="n">
-        <v>2.151664888987221</v>
+        <v>2.108931612511826</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.834777134201857</v>
+        <v>-7.838246594454914</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-4.068009632137723</v>
       </c>
       <c r="E70" t="n">
-        <v>-12.9254572481502</v>
+        <v>-12.85951131873643</v>
       </c>
       <c r="F70" t="n">
-        <v>2.149124982235926</v>
+        <v>2.108983981723193</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.742973906675673</v>
+        <v>-7.74818464320668</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-3.919055386432843</v>
       </c>
       <c r="E71" t="n">
-        <v>-12.61865222335719</v>
+        <v>-12.55473560088389</v>
       </c>
       <c r="F71" t="n">
-        <v>2.104977737053625</v>
+        <v>2.063920275341972</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.448266169708419</v>
+        <v>-7.461279918733095</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-3.775301892602033</v>
       </c>
       <c r="E72" t="n">
-        <v>-12.55046751015749</v>
+        <v>-12.48719241052342</v>
       </c>
       <c r="F72" t="n">
-        <v>2.112754564941611</v>
+        <v>2.073975163924418</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.514604868207445</v>
+        <v>-7.524332449218847</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-3.638343502657887</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.22805646037714</v>
+        <v>-12.1800993550679</v>
       </c>
       <c r="F73" t="n">
-        <v>2.088900389163986</v>
+        <v>2.049990065118376</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.245021260393464</v>
+        <v>-7.262682776926952</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-3.510582713315968</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.43007069322497</v>
+        <v>-12.38177318804184</v>
       </c>
       <c r="F74" t="n">
-        <v>2.112204688222258</v>
+        <v>2.074525040643771</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.195754924800049</v>
+        <v>-7.210051719503213</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-3.39887116981956</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.56295756706849</v>
+        <v>-12.51443749273706</v>
       </c>
       <c r="F75" t="n">
-        <v>2.044203267262333</v>
+        <v>2.006523619683845</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.125082674060411</v>
+        <v>-7.136289685292929</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-3.307282217406327</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.81973690270327</v>
+        <v>-12.77539327297834</v>
       </c>
       <c r="F76" t="n">
-        <v>2.023491244166722</v>
+        <v>1.988220580311112</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.774811203832872</v>
+        <v>-6.794030704404526</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-3.239858043187473</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.39446281284936</v>
+        <v>-13.35208302855069</v>
       </c>
       <c r="F77" t="n">
-        <v>2.016866538928809</v>
+        <v>1.980574675451544</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.720530516251076</v>
+        <v>-6.733701372909852</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-3.199418780432976</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.88577766159081</v>
+        <v>-13.84538790732408</v>
       </c>
       <c r="F78" t="n">
-        <v>2.067900335405857</v>
+        <v>2.030430164672837</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.739723832217046</v>
+        <v>-6.744816738022478</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.187203142282883</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.37415983449572</v>
+        <v>-14.33412357240572</v>
       </c>
       <c r="F79" t="n">
-        <v>2.112571272701826</v>
+        <v>2.075860455533626</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.644987928854317</v>
+        <v>-6.645917482356078</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-3.210149390967604</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.92232146217595</v>
+        <v>-14.88282198450246</v>
       </c>
       <c r="F80" t="n">
-        <v>1.999663252994781</v>
+        <v>1.968136987751904</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.291338644493612</v>
+        <v>-6.296758857870087</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-3.271790368675741</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.69412580699854</v>
+        <v>-15.6552678521643</v>
       </c>
       <c r="F81" t="n">
-        <v>2.099190939197582</v>
+        <v>2.065727013134131</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.234478773251995</v>
+        <v>-6.236848480066348</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-3.375612502488381</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.4226208140207</v>
+        <v>-16.38508518177348</v>
       </c>
       <c r="F82" t="n">
-        <v>2.069209565690029</v>
+        <v>2.039044899942693</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.133458564525237</v>
+        <v>-6.13666617872146</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-3.524174050115323</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.29938615072541</v>
+        <v>-17.26144465709009</v>
       </c>
       <c r="F83" t="n">
-        <v>2.050827972500246</v>
+        <v>2.019327891863053</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.837376135759602</v>
+        <v>-5.842455949262192</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-3.716397454849381</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.35275356046217</v>
+        <v>-18.31570234342009</v>
       </c>
       <c r="F84" t="n">
-        <v>2.061458922407728</v>
+        <v>2.033755609594635</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.72791139169993</v>
+        <v>-5.728919499018743</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-3.95991069275391</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.15167206446998</v>
+        <v>-19.11530164717566</v>
       </c>
       <c r="F85" t="n">
-        <v>2.088690912318518</v>
+        <v>2.059154677107584</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.592131118928389</v>
+        <v>-5.589434104542994</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-4.257928272016235</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.30154283845309</v>
+        <v>-20.26193862235687</v>
       </c>
       <c r="F86" t="n">
-        <v>2.076227040013195</v>
+        <v>2.047109758493196</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.252909552299267</v>
+        <v>-5.252385860185598</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-4.612787723252537</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.36766215115769</v>
+        <v>-21.32771753518758</v>
       </c>
       <c r="F87" t="n">
-        <v>1.89437495354162</v>
+        <v>1.875862437323419</v>
       </c>
       <c r="G87" t="n">
-        <v>-4.889755256075469</v>
+        <v>-4.893944792984821</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-5.024489081892204</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.70912568492663</v>
+        <v>-22.67026773009238</v>
       </c>
       <c r="F88" t="n">
-        <v>1.989660733623702</v>
+        <v>1.968896341316724</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.661936094326594</v>
+        <v>-4.66183135590386</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-5.484758011788705</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.08757497422344</v>
+        <v>-24.05327314077812</v>
       </c>
       <c r="F89" t="n">
-        <v>1.858056905458672</v>
+        <v>1.833417191510543</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.276014283461034</v>
+        <v>-4.278305436458337</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-5.995275180277416</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.55612549167701</v>
+        <v>-25.52285795015618</v>
       </c>
       <c r="F90" t="n">
-        <v>1.641929170147458</v>
+        <v>1.620772008755228</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.164651155489313</v>
+        <v>-4.162700402365895</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-6.550144949422606</v>
       </c>
       <c r="E91" t="n">
-        <v>-27.19918331370795</v>
+        <v>-27.16649183351216</v>
       </c>
       <c r="F91" t="n">
-        <v>1.435882508024373</v>
+        <v>1.416872484298187</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.061536178307878</v>
+        <v>-4.062897777803418</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-7.140807721541604</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.78976718594925</v>
+        <v>-28.76278394979245</v>
       </c>
       <c r="F92" t="n">
-        <v>1.311976953930277</v>
+        <v>1.294983144841717</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.791009924689293</v>
+        <v>-3.793641477560479</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-7.755281609420932</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.637405332185</v>
+        <v>-30.61279180284255</v>
       </c>
       <c r="F93" t="n">
-        <v>1.172714128602837</v>
+        <v>1.156558226896147</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.78022186714771</v>
+        <v>-3.785589711312818</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-8.371159767699893</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.71300665550088</v>
+        <v>-32.69178403259444</v>
       </c>
       <c r="F94" t="n">
-        <v>1.058326678674676</v>
+        <v>1.043362176526583</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.772929454464869</v>
+        <v>-3.780614636232962</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-8.979056316471342</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.74184227306612</v>
+        <v>-34.72387963356727</v>
       </c>
       <c r="F95" t="n">
-        <v>0.6543243975846934</v>
+        <v>0.6390064032598739</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.757663829351416</v>
+        <v>-3.766330933832639</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-9.563466983965943</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.7107936974333</v>
+        <v>-36.69538405698859</v>
       </c>
       <c r="F96" t="n">
-        <v>0.432527695143012</v>
+        <v>0.4141722865589121</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.972024103778997</v>
+        <v>-3.978740455136803</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-10.10815202679922</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.79779841652433</v>
+        <v>-38.78482394440818</v>
       </c>
       <c r="F97" t="n">
-        <v>0.04881848345770443</v>
+        <v>0.0333826584073094</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.965831444534861</v>
+        <v>-3.977326486429896</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-10.59974797338683</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.01628913305481</v>
+        <v>-41.00984772005668</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.15896945494333</v>
+        <v>-0.1772594020132213</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.165790185836543</v>
+        <v>-4.177625627605464</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-11.01569873510731</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.39373349838669</v>
+        <v>-43.38970106911144</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.07987885347646283</v>
+        <v>-0.09795932370088652</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.49503541770027</v>
+        <v>-4.506373351961205</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-11.35695025281657</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.79614488523774</v>
+        <v>-45.79632817747753</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.3528533677264514</v>
+        <v>-0.3642960404101199</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.676232889029759</v>
+        <v>-4.690830806698283</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-11.61369034301384</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.19464167353912</v>
+        <v>-48.19506062723005</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.2858076848739721</v>
+        <v>-0.3020814173062377</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.950686833500862</v>
+        <v>-4.969579026501473</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-11.79247499420654</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.40815731498974</v>
+        <v>-50.41260869795593</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.4332531994774911</v>
+        <v>-0.4483093477454761</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.310371669471603</v>
+        <v>-5.327156001714695</v>
       </c>
     </row>
   </sheetData>
